--- a/errors.xlsx
+++ b/errors.xlsx
@@ -1,37 +1,167 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Farma-Expertiza\Farma-Expertiza\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>КПМ-0108</t>
+  </si>
+  <si>
+    <t>['Не выбрано ни одной проблемы']</t>
+  </si>
+  <si>
+    <t>КПМ-0244</t>
+  </si>
+  <si>
+    <t>['Некорректный термин соответствия для результата 1']</t>
+  </si>
+  <si>
+    <t>КПМ-0245</t>
+  </si>
+  <si>
+    <t>КПМ-0246</t>
+  </si>
+  <si>
+    <t>КПМ-0258</t>
+  </si>
+  <si>
+    <t>КПМ-0262</t>
+  </si>
+  <si>
+    <t>КПМ-0268</t>
+  </si>
+  <si>
+    <t>КПМ-0273</t>
+  </si>
+  <si>
+    <t>КПМ-0283</t>
+  </si>
+  <si>
+    <t>КПМ-0285</t>
+  </si>
+  <si>
+    <t>КПМ-0286</t>
+  </si>
+  <si>
+    <t>КПМ-0287</t>
+  </si>
+  <si>
+    <t>['Некорректный термин соответствия для результата 1', 'Не выбрано ни одной проблемы']</t>
+  </si>
+  <si>
+    <t>КПМ-0289</t>
+  </si>
+  <si>
+    <t>КПМ-0290</t>
+  </si>
+  <si>
+    <t>['Проблемы в Видах и/или Типах результатов']</t>
+  </si>
+  <si>
+    <t>КПМ-0291</t>
+  </si>
+  <si>
+    <t>КПМ-0292</t>
+  </si>
+  <si>
+    <t>КПМ-0293</t>
+  </si>
+  <si>
+    <t>КПМ-0294</t>
+  </si>
+  <si>
+    <t>КПМ-0295</t>
+  </si>
+  <si>
+    <t>КПМ-0296</t>
+  </si>
+  <si>
+    <t>КПМ-0297</t>
+  </si>
+  <si>
+    <t>КПМ-0341</t>
+  </si>
+  <si>
+    <t>КПМ-0346</t>
+  </si>
+  <si>
+    <t>['Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы']</t>
+  </si>
+  <si>
+    <t>КПМ-0363</t>
+  </si>
+  <si>
+    <t>Лаб-2022-10</t>
+  </si>
+  <si>
+    <t>Лаб-2022-12</t>
+  </si>
+  <si>
+    <t>Лаб-2022-14</t>
+  </si>
+  <si>
+    <t>['Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы']</t>
+  </si>
+  <si>
+    <t>Лаб-2022-17</t>
+  </si>
+  <si>
+    <t>Лаб-2022-18</t>
+  </si>
+  <si>
+    <t>Лаб-2022-2</t>
+  </si>
+  <si>
+    <t>Лаб-2022-21</t>
+  </si>
+  <si>
+    <t>Лаб-2022-34</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +176,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,41 +500,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Num</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>КПМ-0287</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Проблемы в Видах и/или Типах результатов</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/errors.xlsx
+++ b/errors.xlsx
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['Некорректный термин соответствия для результата 1', 'Не выбрано ни одной проблемы']</t>
+          <t>['Не выбрано ни одной проблемы']</t>
         </is>
       </c>
     </row>

--- a/errors.xlsx
+++ b/errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>КПМ-0108</t>
+          <t>КПМ-0273</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,55 +460,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>КПМ-0244</t>
+          <t>КПМ-0283</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['Некорректный термин соответствия для результата 1']</t>
+          <t>['Не выбрано ни одной проблемы']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>КПМ-0245</t>
+          <t>КПМ-0285</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['Некорректный термин соответствия для результата 1']</t>
+          <t>['Не выбрано ни одной проблемы']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>КПМ-0246</t>
+          <t>КПМ-0286</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['Некорректный термин соответствия для результата 1']</t>
+          <t>['Не выбрано ни одной проблемы']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>КПМ-0258</t>
+          <t>КПМ-0287</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['Некорректный термин соответствия для результата 1']</t>
+          <t>['Не выбрано ни одной проблемы']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>КПМ-0262</t>
+          <t>КПМ-0289</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,19 +520,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>КПМ-0268</t>
+          <t>КПМ-0291</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['Некорректный термин соответствия для результата 1']</t>
+          <t>['Не выбрано ни одной проблемы']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>КПМ-0273</t>
+          <t>КПМ-0292</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>КПМ-0283</t>
+          <t>КПМ-0293</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>КПМ-0285</t>
+          <t>КПМ-0294</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>КПМ-0286</t>
+          <t>КПМ-0295</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,19 +580,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>КПМ-0287</t>
+          <t>КПМ-0296</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['Некорректный термин соответствия для результата 1', 'Не выбрано ни одной проблемы']</t>
+          <t>['Не выбрано ни одной проблемы']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>КПМ-0289</t>
+          <t>КПМ-0341</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>КПМ-0291</t>
+          <t>КПМ-0363</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,19 +616,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>КПМ-0292</t>
+          <t>Лаб-2022-10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['Не выбрано ни одной проблемы']</t>
+          <t>['Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>КПМ-0293</t>
+          <t>Лаб-2022-12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,19 +640,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>КПМ-0294</t>
+          <t>Лаб-2022-14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['Не выбрано ни одной проблемы']</t>
+          <t>['Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>КПМ-0295</t>
+          <t>Лаб-2022-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>КПМ-0296</t>
+          <t>Лаб-2022-18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,19 +676,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>КПМ-0297</t>
+          <t>Лаб-2022-2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['Некорректный термин соответствия для результата 1', 'Некорректный термин соответствия для результата 2', 'Не выбрано ни одной проблемы']</t>
+          <t>['Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы']</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>КПМ-0341</t>
+          <t>Лаб-2022-21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,132 +700,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>КПМ-0346</t>
+          <t>Лаб-2022-34</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>КПМ-0363</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Лаб-2022-10</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Лаб-2022-12</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Лаб-2022-14</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Лаб-2022-17</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Лаб-2022-18</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Лаб-2022-2</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Лаб-2022-21</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Лаб-2022-34</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Лаб-2022-41</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>['Ошибка в ДОК для результата 1']</t>
+          <t>['Не выбрано ни одной проблемы']</t>
         </is>
       </c>
     </row>

--- a/errors.xlsx
+++ b/errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,264 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>КПМ-0273</t>
+          <t>КПМ-0244</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>КПМ-0283</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>КПМ-0285</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>КПМ-0286</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>КПМ-0287</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>КПМ-0289</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>КПМ-0291</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>КПМ-0292</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>КПМ-0293</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>КПМ-0294</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>КПМ-0295</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>КПМ-0296</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>КПМ-0341</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>КПМ-0363</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Лаб-2022-10</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Лаб-2022-12</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Лаб-2022-14</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Лаб-2022-17</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Лаб-2022-18</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Лаб-2022-2</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы', 'Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Лаб-2022-21</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Лаб-2022-34</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>['Не выбрано ни одной проблемы']</t>
+          <t>['Не выбран ответ по результатам для проекта 2024 года']</t>
         </is>
       </c>
     </row>

--- a/errors.xlsx
+++ b/errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,12 +448,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>КПМ-0244</t>
+          <t>КПМ-0350</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['Не выбран ответ по результатам для проекта 2024 года']</t>
+          <t>['Проблемы в Видах и/или Типах результатов']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>КПМ-0285</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>['Проблемы в Видах и/или Типах результатов']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>КПМ-0309</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>['Проблемы в Видах и/или Типах результатов']</t>
         </is>
       </c>
     </row>
